--- a/Remain_Task.xlsx
+++ b/Remain_Task.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>No</t>
   </si>
@@ -121,17 +121,29 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>TienVV</t>
+  </si>
+  <si>
+    <t>Thay đổi favorite team, cho phép user chọn có notify lịch thi đấu hay ko, …</t>
+  </si>
+  <si>
+    <t>Hiện tại để scroll để phù hợp với các màn hình nhỏ. Nếu co lại thì sẽ bị bé quá, scroll thì có lẽ ko k gây vấn đề j</t>
+  </si>
+  <si>
+    <t>em tưởng cái này sẽ ghi override vào file json lịch thi đấu, thì mình đọc từ file thì kết quả đã tự cập nhật</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,7 +195,7 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -191,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -206,6 +218,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -252,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,9 +304,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,6 +339,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,22 +515,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="65.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -523,7 +546,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:6" ht="45">
+    <row r="3" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -536,8 +559,11 @@
       <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:6">
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
         <v>2</v>
       </c>
@@ -548,8 +574,11 @@
       <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
         <v>3</v>
       </c>
@@ -562,8 +591,11 @@
       <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="30">
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>4</v>
       </c>
@@ -574,8 +606,14 @@
       <c r="E6" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>5</v>
       </c>
@@ -586,8 +624,11 @@
       <c r="E7" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="30">
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>6</v>
       </c>
@@ -598,8 +639,11 @@
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="60">
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>7</v>
       </c>
@@ -611,7 +655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="45">
+    <row r="10" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>8</v>
       </c>
@@ -623,7 +667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="30">
+    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>9</v>
       </c>
@@ -635,7 +679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="30">
+    <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>10</v>
       </c>
@@ -646,8 +690,11 @@
       <c r="E12" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" ht="45">
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>11</v>
       </c>
@@ -659,7 +706,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="30">
+    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>12</v>
       </c>
@@ -671,7 +718,7 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="2:6" ht="60">
+    <row r="15" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>13</v>
       </c>
@@ -681,7 +728,7 @@
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="2:6" ht="60">
+    <row r="16" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>14</v>
       </c>
@@ -691,7 +738,7 @@
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>15</v>
       </c>
@@ -707,24 +754,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
